--- a/code/Data/Market_Value.xlsx
+++ b/code/Data/Market_Value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\Quant\Reference\Black-Litterman-Model\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3218B03D-6894-43AF-BD70-237578BFAF62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA747FE-19EE-4003-938E-E289F98D9C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="3465" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="2" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD55E108-2746-40E5-889E-291D249C8C81}">
   <dimension ref="A1:L526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
-      <selection activeCell="I480" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
